--- a/DC-DC_12-5v/HW/Manufacture/DC-DC_12-5V.xlsx
+++ b/DC-DC_12-5v/HW/Manufacture/DC-DC_12-5V.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GIT\Miscellaneous\DC-DC_12-5v\HW\Manufacture\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FBB272-B14B-46FD-B24D-252533AA4C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="28455" windowHeight="15090"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DC-DC_12-5V" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'DC-DC_12-5V'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Comment</t>
   </si>
@@ -37,9 +43,6 @@
   </si>
   <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
   </si>
   <si>
     <t>0.1µF ±10% 50V Ceramic Capacitor X7R 1206 _3216 Metric_</t>
@@ -144,8 +147,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +167,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,25 +204,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -251,7 +269,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -285,6 +303,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -319,9 +338,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -494,17 +514,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -524,161 +546,161 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -691,24 +713,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
